--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_16ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_16ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2877,28 +2877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>821.7302155105432</v>
+        <v>976.9602436286536</v>
       </c>
       <c r="AB2" t="n">
-        <v>1124.327533040084</v>
+        <v>1336.720105776797</v>
       </c>
       <c r="AC2" t="n">
-        <v>1017.023291290341</v>
+        <v>1209.14541497991</v>
       </c>
       <c r="AD2" t="n">
-        <v>821730.2155105432</v>
+        <v>976960.2436286537</v>
       </c>
       <c r="AE2" t="n">
-        <v>1124327.533040084</v>
+        <v>1336720.105776797</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.575670186477067e-07</v>
+        <v>1.236323853592032e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.44270833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1017023.291290341</v>
+        <v>1209145.41497991</v>
       </c>
     </row>
     <row r="3">
@@ -2983,28 +2983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>586.1464589187697</v>
+        <v>707.0136080555386</v>
       </c>
       <c r="AB3" t="n">
-        <v>801.9914440493953</v>
+        <v>967.3672097806087</v>
       </c>
       <c r="AC3" t="n">
-        <v>725.4505062313816</v>
+        <v>875.043040987553</v>
       </c>
       <c r="AD3" t="n">
-        <v>586146.4589187696</v>
+        <v>707013.6080555386</v>
       </c>
       <c r="AE3" t="n">
-        <v>801991.4440493954</v>
+        <v>967367.2097806088</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.09917497210504e-06</v>
+        <v>1.584641442283679e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.65625</v>
       </c>
       <c r="AH3" t="n">
-        <v>725450.5062313816</v>
+        <v>875043.040987553</v>
       </c>
     </row>
     <row r="4">
@@ -3089,28 +3089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>520.7574702856951</v>
+        <v>632.8206594263885</v>
       </c>
       <c r="AB4" t="n">
-        <v>712.5233450430405</v>
+        <v>865.8531443043203</v>
       </c>
       <c r="AC4" t="n">
-        <v>644.5211170249275</v>
+        <v>783.2173354444357</v>
       </c>
       <c r="AD4" t="n">
-        <v>520757.4702856952</v>
+        <v>632820.6594263884</v>
       </c>
       <c r="AE4" t="n">
-        <v>712523.3450430406</v>
+        <v>865853.1443043202</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.196975892304655e-06</v>
+        <v>1.725637548613309e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>644521.1170249275</v>
+        <v>783217.3354444357</v>
       </c>
     </row>
     <row r="5">
@@ -3195,28 +3195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>487.9231713958474</v>
+        <v>591.4383335956287</v>
       </c>
       <c r="AB5" t="n">
-        <v>667.5980087549169</v>
+        <v>809.2320204433079</v>
       </c>
       <c r="AC5" t="n">
-        <v>603.8833917790371</v>
+        <v>732.0000521764719</v>
       </c>
       <c r="AD5" t="n">
-        <v>487923.1713958473</v>
+        <v>591438.3335956287</v>
       </c>
       <c r="AE5" t="n">
-        <v>667598.008754917</v>
+        <v>809232.0204433078</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.245596254303653e-06</v>
+        <v>1.795731794313696e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.40104166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>603883.3917790371</v>
+        <v>732000.0521764718</v>
       </c>
     </row>
     <row r="6">
@@ -3301,28 +3301,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>461.2366854394173</v>
+        <v>573.2997850715594</v>
       </c>
       <c r="AB6" t="n">
-        <v>631.0843813446604</v>
+        <v>784.4140581363919</v>
       </c>
       <c r="AC6" t="n">
-        <v>570.8545737216175</v>
+        <v>709.5506813598989</v>
       </c>
       <c r="AD6" t="n">
-        <v>461236.6854394173</v>
+        <v>573299.7850715595</v>
       </c>
       <c r="AE6" t="n">
-        <v>631084.3813446604</v>
+        <v>784414.0581363919</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.276477069917995e-06</v>
+        <v>1.840251567266942e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.81510416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>570854.5737216175</v>
+        <v>709550.6813598989</v>
       </c>
     </row>
     <row r="7">
@@ -3407,28 +3407,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>446.937673497176</v>
+        <v>550.3674948423857</v>
       </c>
       <c r="AB7" t="n">
-        <v>611.5198423774007</v>
+        <v>753.0370869435939</v>
       </c>
       <c r="AC7" t="n">
-        <v>553.15724689439</v>
+        <v>681.1682842598858</v>
       </c>
       <c r="AD7" t="n">
-        <v>446937.673497176</v>
+        <v>550367.4948423856</v>
       </c>
       <c r="AE7" t="n">
-        <v>611519.8423774006</v>
+        <v>753037.0869435938</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.299305065134039e-06</v>
+        <v>1.873161875617868e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.38541666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>553157.24689439</v>
+        <v>681168.2842598858</v>
       </c>
     </row>
     <row r="8">
@@ -3513,28 +3513,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>438.2547947684829</v>
+        <v>541.6846161136928</v>
       </c>
       <c r="AB8" t="n">
-        <v>599.6395446392285</v>
+        <v>741.1567892054215</v>
       </c>
       <c r="AC8" t="n">
-        <v>542.4107880982465</v>
+        <v>670.4218254637423</v>
       </c>
       <c r="AD8" t="n">
-        <v>438254.7947684829</v>
+        <v>541684.6161136928</v>
       </c>
       <c r="AE8" t="n">
-        <v>599639.5446392285</v>
+        <v>741156.7892054216</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.311792772128501e-06</v>
+        <v>1.891164958406973e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.1640625</v>
       </c>
       <c r="AH8" t="n">
-        <v>542410.7880982464</v>
+        <v>670421.8254637423</v>
       </c>
     </row>
     <row r="9">
@@ -3619,28 +3619,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>438.5341115771053</v>
+        <v>541.9639329223151</v>
       </c>
       <c r="AB9" t="n">
-        <v>600.0217182193734</v>
+        <v>741.5389627855667</v>
       </c>
       <c r="AC9" t="n">
-        <v>542.7564875682864</v>
+        <v>670.7675249337822</v>
       </c>
       <c r="AD9" t="n">
-        <v>438534.1115771053</v>
+        <v>541963.9329223151</v>
       </c>
       <c r="AE9" t="n">
-        <v>600021.7182193734</v>
+        <v>741538.9627855667</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.310462306149651e-06</v>
+        <v>1.889246872950937e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.19010416666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>542756.4875682864</v>
+        <v>670767.5249337822</v>
       </c>
     </row>
   </sheetData>
@@ -3916,28 +3916,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>659.7160072558919</v>
+        <v>802.6415259818002</v>
       </c>
       <c r="AB2" t="n">
-        <v>902.6525457436514</v>
+        <v>1098.20954589331</v>
       </c>
       <c r="AC2" t="n">
-        <v>816.5046536586814</v>
+        <v>993.3979681800304</v>
       </c>
       <c r="AD2" t="n">
-        <v>659716.0072558919</v>
+        <v>802641.5259818002</v>
       </c>
       <c r="AE2" t="n">
-        <v>902652.5457436515</v>
+        <v>1098209.54589331</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.913572207996916e-07</v>
+        <v>1.451309677430188e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.71875</v>
       </c>
       <c r="AH2" t="n">
-        <v>816504.6536586814</v>
+        <v>993397.9681800304</v>
       </c>
     </row>
     <row r="3">
@@ -4022,28 +4022,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>496.9290750952575</v>
+        <v>614.6023231561566</v>
       </c>
       <c r="AB3" t="n">
-        <v>679.9202835088802</v>
+        <v>840.9260128831177</v>
       </c>
       <c r="AC3" t="n">
-        <v>615.0296459249032</v>
+        <v>760.6692144606239</v>
       </c>
       <c r="AD3" t="n">
-        <v>496929.0750952575</v>
+        <v>614602.3231561566</v>
       </c>
       <c r="AE3" t="n">
-        <v>679920.2835088802</v>
+        <v>840926.0128831177</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.212321511708158e-06</v>
+        <v>1.774793086874938e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.9375</v>
       </c>
       <c r="AH3" t="n">
-        <v>615029.6459249032</v>
+        <v>760669.2144606239</v>
       </c>
     </row>
     <row r="4">
@@ -4128,28 +4128,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>450.6376968845251</v>
+        <v>551.5615281985409</v>
       </c>
       <c r="AB4" t="n">
-        <v>616.5823776094832</v>
+        <v>754.6708160585191</v>
       </c>
       <c r="AC4" t="n">
-        <v>557.7366208692354</v>
+        <v>682.646092561036</v>
       </c>
       <c r="AD4" t="n">
-        <v>450637.6968845251</v>
+        <v>551561.5281985409</v>
       </c>
       <c r="AE4" t="n">
-        <v>616582.3776094832</v>
+        <v>754670.8160585191</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.299200488725823e-06</v>
+        <v>1.901980640932659e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.20572916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>557736.6208692354</v>
+        <v>682646.092561036</v>
       </c>
     </row>
     <row r="5">
@@ -4234,28 +4234,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>419.4899203333785</v>
+        <v>520.3284107928228</v>
       </c>
       <c r="AB5" t="n">
-        <v>573.964615589285</v>
+        <v>711.9362869161234</v>
       </c>
       <c r="AC5" t="n">
-        <v>519.1862382418404</v>
+        <v>643.9900869017022</v>
       </c>
       <c r="AD5" t="n">
-        <v>419489.9203333785</v>
+        <v>520328.4107928227</v>
       </c>
       <c r="AE5" t="n">
-        <v>573964.615589285</v>
+        <v>711936.2869161235</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.344861451911039e-06</v>
+        <v>1.968826573318193e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.37239583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>519186.2382418404</v>
+        <v>643990.0869017022</v>
       </c>
     </row>
     <row r="6">
@@ -4340,28 +4340,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>408.6096750856478</v>
+        <v>501.2014236992322</v>
       </c>
       <c r="AB6" t="n">
-        <v>559.0777840387963</v>
+        <v>685.7658993515564</v>
       </c>
       <c r="AC6" t="n">
-        <v>505.720185000731</v>
+        <v>620.3173643959277</v>
       </c>
       <c r="AD6" t="n">
-        <v>408609.6750856478</v>
+        <v>501201.4236992322</v>
       </c>
       <c r="AE6" t="n">
-        <v>559077.7840387963</v>
+        <v>685765.8993515564</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.362874713960839e-06</v>
+        <v>1.995197311319044e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.07291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>505720.185000731</v>
+        <v>620317.3643959278</v>
       </c>
     </row>
     <row r="7">
@@ -4446,28 +4446,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>408.4935280043612</v>
+        <v>501.0852766179456</v>
       </c>
       <c r="AB7" t="n">
-        <v>558.9188664781326</v>
+        <v>685.6069817908924</v>
       </c>
       <c r="AC7" t="n">
-        <v>505.5764343090147</v>
+        <v>620.1736137042113</v>
       </c>
       <c r="AD7" t="n">
-        <v>408493.5280043612</v>
+        <v>501085.2766179456</v>
       </c>
       <c r="AE7" t="n">
-        <v>558918.8664781325</v>
+        <v>685606.9817908924</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.362102027116879e-06</v>
+        <v>1.994066126847158e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.0859375</v>
       </c>
       <c r="AH7" t="n">
-        <v>505576.4343090147</v>
+        <v>620173.6137042113</v>
       </c>
     </row>
   </sheetData>
@@ -4743,28 +4743,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>368.0612441864739</v>
+        <v>468.9506568770203</v>
       </c>
       <c r="AB2" t="n">
-        <v>503.5976320120275</v>
+        <v>641.6389773819903</v>
       </c>
       <c r="AC2" t="n">
-        <v>455.5349808165146</v>
+        <v>580.4018539266133</v>
       </c>
       <c r="AD2" t="n">
-        <v>368061.2441864739</v>
+        <v>468950.6568770203</v>
       </c>
       <c r="AE2" t="n">
-        <v>503597.6320120275</v>
+        <v>641638.9773819903</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.415661345729851e-06</v>
+        <v>2.190202841050743e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.77864583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>455534.9808165146</v>
+        <v>580401.8539266132</v>
       </c>
     </row>
     <row r="3">
@@ -4849,28 +4849,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>335.5168839553059</v>
+        <v>428.5537565655919</v>
       </c>
       <c r="AB3" t="n">
-        <v>459.0690025879007</v>
+        <v>586.3661561904327</v>
       </c>
       <c r="AC3" t="n">
-        <v>415.2561012883024</v>
+        <v>530.4041932136859</v>
       </c>
       <c r="AD3" t="n">
-        <v>335516.8839553059</v>
+        <v>428553.7565655919</v>
       </c>
       <c r="AE3" t="n">
-        <v>459069.0025879007</v>
+        <v>586366.1561904326</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.499672538436226e-06</v>
+        <v>2.320178525913921e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.3984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>415256.1012883025</v>
+        <v>530404.1932136859</v>
       </c>
     </row>
   </sheetData>
@@ -5146,28 +5146,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>458.7846485011334</v>
+        <v>570.999824810986</v>
       </c>
       <c r="AB2" t="n">
-        <v>627.7293962294655</v>
+        <v>781.2671510407897</v>
       </c>
       <c r="AC2" t="n">
-        <v>567.8197836770655</v>
+        <v>706.7041106607893</v>
       </c>
       <c r="AD2" t="n">
-        <v>458784.6485011334</v>
+        <v>570999.8248109859</v>
       </c>
       <c r="AE2" t="n">
-        <v>627729.3962294655</v>
+        <v>781267.1510407897</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.245490289813319e-06</v>
+        <v>1.882301962744745e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>567819.7836770655</v>
+        <v>706704.1106607893</v>
       </c>
     </row>
     <row r="3">
@@ -5252,28 +5252,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>372.58601470782</v>
+        <v>468.843600848755</v>
       </c>
       <c r="AB3" t="n">
-        <v>509.7886226581205</v>
+        <v>641.4924986011393</v>
       </c>
       <c r="AC3" t="n">
-        <v>461.1351120044542</v>
+        <v>580.2693548750221</v>
       </c>
       <c r="AD3" t="n">
-        <v>372586.01470782</v>
+        <v>468843.600848755</v>
       </c>
       <c r="AE3" t="n">
-        <v>509788.6226581205</v>
+        <v>641492.4986011393</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.424352789472141e-06</v>
+        <v>2.152615779659122e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.56770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>461135.1120044542</v>
+        <v>580269.3548750222</v>
       </c>
     </row>
     <row r="4">
@@ -5358,28 +5358,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>361.9436632577081</v>
+        <v>450.1798733954496</v>
       </c>
       <c r="AB4" t="n">
-        <v>495.2272878966675</v>
+        <v>615.955963313983</v>
       </c>
       <c r="AC4" t="n">
-        <v>447.9634905956727</v>
+        <v>557.1699906749199</v>
       </c>
       <c r="AD4" t="n">
-        <v>361943.6632577081</v>
+        <v>450179.8733954496</v>
       </c>
       <c r="AE4" t="n">
-        <v>495227.2878966675</v>
+        <v>615955.9633139831</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.454356529146859e-06</v>
+        <v>2.197960250460151e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.07291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>447963.4905956727</v>
+        <v>557169.9906749199</v>
       </c>
     </row>
   </sheetData>
@@ -5655,28 +5655,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>316.8179627209082</v>
+        <v>414.9118322945999</v>
       </c>
       <c r="AB2" t="n">
-        <v>433.4843136168142</v>
+        <v>567.7006735636384</v>
       </c>
       <c r="AC2" t="n">
-        <v>392.11317912428</v>
+        <v>513.5201180516236</v>
       </c>
       <c r="AD2" t="n">
-        <v>316817.9627209082</v>
+        <v>414911.8322946</v>
       </c>
       <c r="AE2" t="n">
-        <v>433484.3136168142</v>
+        <v>567700.6735636384</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.519730348367606e-06</v>
+        <v>2.401915564154073e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.97135416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>392113.17912428</v>
+        <v>513520.1180516236</v>
       </c>
     </row>
     <row r="3">
@@ -5761,28 +5761,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>317.1767007492057</v>
+        <v>415.2705703228974</v>
       </c>
       <c r="AB3" t="n">
-        <v>433.9751548135355</v>
+        <v>568.1915147603596</v>
       </c>
       <c r="AC3" t="n">
-        <v>392.5571751260862</v>
+        <v>513.9641140534297</v>
       </c>
       <c r="AD3" t="n">
-        <v>317176.7007492057</v>
+        <v>415270.5703228973</v>
       </c>
       <c r="AE3" t="n">
-        <v>433975.1548135355</v>
+        <v>568191.5147603597</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.52250071929801e-06</v>
+        <v>2.406294102138371e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.93229166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>392557.1751260862</v>
+        <v>513964.1140534297</v>
       </c>
     </row>
   </sheetData>
@@ -6058,28 +6058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>698.795670468611</v>
+        <v>842.7714347055249</v>
       </c>
       <c r="AB2" t="n">
-        <v>956.1230650243557</v>
+        <v>1153.117057415734</v>
       </c>
       <c r="AC2" t="n">
-        <v>864.8720216255803</v>
+        <v>1043.065183865931</v>
       </c>
       <c r="AD2" t="n">
-        <v>698795.6704686109</v>
+        <v>842771.4347055249</v>
       </c>
       <c r="AE2" t="n">
-        <v>956123.0650243557</v>
+        <v>1153117.057415734</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.55028656636963e-07</v>
+        <v>1.392323184025715e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.63020833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>864872.0216255803</v>
+        <v>1043065.183865931</v>
       </c>
     </row>
     <row r="3">
@@ -6164,28 +6164,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>522.4784078554864</v>
+        <v>632.5575309911901</v>
       </c>
       <c r="AB3" t="n">
-        <v>714.8780077484361</v>
+        <v>865.4931203708746</v>
       </c>
       <c r="AC3" t="n">
-        <v>646.6510540265101</v>
+        <v>782.8916716899014</v>
       </c>
       <c r="AD3" t="n">
-        <v>522478.4078554864</v>
+        <v>632557.5309911901</v>
       </c>
       <c r="AE3" t="n">
-        <v>714878.0077484361</v>
+        <v>865493.1203708746</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.183029484510603e-06</v>
+        <v>1.724722464842478e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.34114583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>646651.0540265101</v>
+        <v>782891.6716899014</v>
       </c>
     </row>
     <row r="4">
@@ -6270,28 +6270,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>466.1108848202459</v>
+        <v>576.0193262468064</v>
       </c>
       <c r="AB4" t="n">
-        <v>637.7534759720105</v>
+        <v>788.1350543500537</v>
       </c>
       <c r="AC4" t="n">
-        <v>576.8871793178663</v>
+        <v>712.9165509173801</v>
       </c>
       <c r="AD4" t="n">
-        <v>466110.8848202459</v>
+        <v>576019.3262468064</v>
       </c>
       <c r="AE4" t="n">
-        <v>637753.4759720105</v>
+        <v>788135.0543500537</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.27202351041972e-06</v>
+        <v>1.854465635010145e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.4921875</v>
       </c>
       <c r="AH4" t="n">
-        <v>576887.1793178663</v>
+        <v>712916.55091738</v>
       </c>
     </row>
     <row r="5">
@@ -6376,28 +6376,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>435.0037490978268</v>
+        <v>536.6939409271107</v>
       </c>
       <c r="AB5" t="n">
-        <v>595.1913205266241</v>
+        <v>734.3283272420899</v>
       </c>
       <c r="AC5" t="n">
-        <v>538.3870962518273</v>
+        <v>664.2450623263844</v>
       </c>
       <c r="AD5" t="n">
-        <v>435003.7490978268</v>
+        <v>536693.9409271107</v>
       </c>
       <c r="AE5" t="n">
-        <v>595191.3205266241</v>
+        <v>734328.3272420899</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.317800754723066e-06</v>
+        <v>1.921203651824006e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.64583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>538387.0962518273</v>
+        <v>664245.0623263844</v>
       </c>
     </row>
     <row r="6">
@@ -6482,28 +6482,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>418.4968058333484</v>
+        <v>520.0164054620402</v>
       </c>
       <c r="AB6" t="n">
-        <v>572.6057925172244</v>
+        <v>711.509387457843</v>
       </c>
       <c r="AC6" t="n">
-        <v>517.9570993366568</v>
+        <v>643.603930128563</v>
       </c>
       <c r="AD6" t="n">
-        <v>418496.8058333484</v>
+        <v>520016.4054620402</v>
       </c>
       <c r="AE6" t="n">
-        <v>572605.7925172243</v>
+        <v>711509.3874578429</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.344912943847839e-06</v>
+        <v>1.960730140611306e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.1640625</v>
       </c>
       <c r="AH6" t="n">
-        <v>517957.0993366569</v>
+        <v>643603.930128563</v>
       </c>
     </row>
     <row r="7">
@@ -6588,28 +6588,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>415.1497841596885</v>
+        <v>508.3658828450833</v>
       </c>
       <c r="AB7" t="n">
-        <v>568.0262498031479</v>
+        <v>695.5686284285398</v>
       </c>
       <c r="AC7" t="n">
-        <v>513.8146217517834</v>
+        <v>629.1845347680207</v>
       </c>
       <c r="AD7" t="n">
-        <v>415149.7841596885</v>
+        <v>508365.8828450833</v>
       </c>
       <c r="AE7" t="n">
-        <v>568026.249803148</v>
+        <v>695568.6284285398</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.348885250462765e-06</v>
+        <v>1.966521311960549e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.09895833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>513814.6217517834</v>
+        <v>629184.5347680207</v>
       </c>
     </row>
     <row r="8">
@@ -6694,28 +6694,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>416.5601311220562</v>
+        <v>518.079730750748</v>
       </c>
       <c r="AB8" t="n">
-        <v>569.9559487371762</v>
+        <v>708.8595436777947</v>
       </c>
       <c r="AC8" t="n">
-        <v>515.5601529278974</v>
+        <v>641.2069837198034</v>
       </c>
       <c r="AD8" t="n">
-        <v>416560.1311220562</v>
+        <v>518079.730750748</v>
       </c>
       <c r="AE8" t="n">
-        <v>569955.9487371761</v>
+        <v>708859.5436777947</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.348143434167207e-06</v>
+        <v>1.965439828154365e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.11197916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>515560.1529278974</v>
+        <v>641206.9837198034</v>
       </c>
     </row>
   </sheetData>
@@ -6991,28 +6991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>312.4053268033838</v>
+        <v>408.8090995017893</v>
       </c>
       <c r="AB2" t="n">
-        <v>427.4467504826998</v>
+        <v>559.3506453229455</v>
       </c>
       <c r="AC2" t="n">
-        <v>386.6518325419124</v>
+        <v>505.9670047868842</v>
       </c>
       <c r="AD2" t="n">
-        <v>312405.3268033838</v>
+        <v>408809.0995017893</v>
       </c>
       <c r="AE2" t="n">
-        <v>427446.7504826998</v>
+        <v>559350.6453229456</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.526053782998936e-06</v>
+        <v>2.445096626854382e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.44010416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>386651.8325419124</v>
+        <v>505967.0047868842</v>
       </c>
     </row>
   </sheetData>
@@ -7288,28 +7288,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>560.0537642858112</v>
+        <v>683.3813644148125</v>
       </c>
       <c r="AB2" t="n">
-        <v>766.2902681241371</v>
+        <v>935.0325314503599</v>
       </c>
       <c r="AC2" t="n">
-        <v>693.1566004295149</v>
+        <v>845.7943389751368</v>
       </c>
       <c r="AD2" t="n">
-        <v>560053.7642858112</v>
+        <v>683381.3644148125</v>
       </c>
       <c r="AE2" t="n">
-        <v>766290.2681241371</v>
+        <v>935032.5314503598</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.107708093361785e-06</v>
+        <v>1.644772826833505e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.24479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>693156.6004295149</v>
+        <v>845794.3389751369</v>
       </c>
     </row>
     <row r="3">
@@ -7394,28 +7394,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>435.0800185907863</v>
+        <v>542.0264444218623</v>
       </c>
       <c r="AB3" t="n">
-        <v>595.2956758116637</v>
+        <v>741.6244937770598</v>
       </c>
       <c r="AC3" t="n">
-        <v>538.4814920149263</v>
+        <v>670.844892967491</v>
       </c>
       <c r="AD3" t="n">
-        <v>435080.0185907863</v>
+        <v>542026.4444218623</v>
       </c>
       <c r="AE3" t="n">
-        <v>595295.6758116637</v>
+        <v>741624.4937770598</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.311685603917052e-06</v>
+        <v>1.947647445748899e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.70052083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>538481.4920149263</v>
+        <v>670844.8929674909</v>
       </c>
     </row>
     <row r="4">
@@ -7500,28 +7500,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>394.0679795323957</v>
+        <v>492.6959411954784</v>
       </c>
       <c r="AB4" t="n">
-        <v>539.1811946485064</v>
+        <v>674.1283229545153</v>
       </c>
       <c r="AC4" t="n">
-        <v>487.7224981768117</v>
+        <v>609.7904619567792</v>
       </c>
       <c r="AD4" t="n">
-        <v>394067.9795323957</v>
+        <v>492695.9411954784</v>
       </c>
       <c r="AE4" t="n">
-        <v>539181.1946485065</v>
+        <v>674128.3229545152</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.387937716351726e-06</v>
+        <v>2.060869876164276e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>487722.4981768117</v>
+        <v>609790.4619567791</v>
       </c>
     </row>
     <row r="5">
@@ -7606,28 +7606,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>385.6581982820313</v>
+        <v>476.2236288322843</v>
       </c>
       <c r="AB5" t="n">
-        <v>527.6745609283938</v>
+        <v>651.59017847206</v>
       </c>
       <c r="AC5" t="n">
-        <v>477.3140414292848</v>
+        <v>589.403326351245</v>
       </c>
       <c r="AD5" t="n">
-        <v>385658.1982820313</v>
+        <v>476223.6288322843</v>
       </c>
       <c r="AE5" t="n">
-        <v>527674.5609283939</v>
+        <v>651590.17847206</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.406248174672092e-06</v>
+        <v>2.088058035637593e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.03385416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>477314.0414292848</v>
+        <v>589403.3263512451</v>
       </c>
     </row>
     <row r="6">
@@ -7712,28 +7712,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>386.4448532202516</v>
+        <v>477.0102837705047</v>
       </c>
       <c r="AB6" t="n">
-        <v>528.7508969196334</v>
+        <v>652.6665144632994</v>
       </c>
       <c r="AC6" t="n">
-        <v>478.2876534241676</v>
+        <v>590.3769383461278</v>
       </c>
       <c r="AD6" t="n">
-        <v>386444.8532202516</v>
+        <v>477010.2837705046</v>
       </c>
       <c r="AE6" t="n">
-        <v>528750.8969196334</v>
+        <v>652666.5144632994</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.404606204224885e-06</v>
+        <v>2.085619966989171e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.05989583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>478287.6534241675</v>
+        <v>590376.9383461277</v>
       </c>
     </row>
   </sheetData>
@@ -8009,28 +8009,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>623.7105747430483</v>
+        <v>757.3613318348238</v>
       </c>
       <c r="AB2" t="n">
-        <v>853.3883245320034</v>
+        <v>1036.255186640237</v>
       </c>
       <c r="AC2" t="n">
-        <v>771.9421405767043</v>
+        <v>937.3564460205806</v>
       </c>
       <c r="AD2" t="n">
-        <v>623710.5747430483</v>
+        <v>757361.3318348238</v>
       </c>
       <c r="AE2" t="n">
-        <v>853388.3245320034</v>
+        <v>1036255.186640237</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.02722129632927e-06</v>
+        <v>1.510469829601926e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.8984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>771942.1405767043</v>
+        <v>937356.4460205806</v>
       </c>
     </row>
     <row r="3">
@@ -8115,28 +8115,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>478.926465259696</v>
+        <v>587.5870448411032</v>
       </c>
       <c r="AB3" t="n">
-        <v>655.2883185127723</v>
+        <v>803.9625172624976</v>
       </c>
       <c r="AC3" t="n">
-        <v>592.7485210968439</v>
+        <v>727.2334629834437</v>
       </c>
       <c r="AD3" t="n">
-        <v>478926.465259696</v>
+        <v>587587.0448411031</v>
       </c>
       <c r="AE3" t="n">
-        <v>655288.3185127723</v>
+        <v>803962.5172624976</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.243897931982693e-06</v>
+        <v>1.829080358904304e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.52083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>592748.5210968439</v>
+        <v>727233.4629834438</v>
       </c>
     </row>
     <row r="4">
@@ -8221,28 +8221,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>426.5909392444752</v>
+        <v>535.080837116739</v>
       </c>
       <c r="AB4" t="n">
-        <v>583.6805429382921</v>
+        <v>732.121207443622</v>
       </c>
       <c r="AC4" t="n">
-        <v>527.9748911210479</v>
+        <v>662.2485869437701</v>
       </c>
       <c r="AD4" t="n">
-        <v>426590.9392444752</v>
+        <v>535080.837116739</v>
       </c>
       <c r="AE4" t="n">
-        <v>583680.5429382921</v>
+        <v>732121.2074436219</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.327165722216925e-06</v>
+        <v>1.951520854809009e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.91927083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>527974.8911210479</v>
+        <v>662248.5869437701</v>
       </c>
     </row>
     <row r="5">
@@ -8327,28 +8327,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>406.2859957576592</v>
+        <v>506.4174770168273</v>
       </c>
       <c r="AB5" t="n">
-        <v>555.8984234687456</v>
+        <v>692.9027336167218</v>
       </c>
       <c r="AC5" t="n">
-        <v>502.8442581412251</v>
+        <v>626.7730692154355</v>
       </c>
       <c r="AD5" t="n">
-        <v>406285.9957576592</v>
+        <v>506417.4770168273</v>
       </c>
       <c r="AE5" t="n">
-        <v>555898.4234687455</v>
+        <v>692902.7336167218</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.367897712111949e-06</v>
+        <v>2.011414903010637e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.203125</v>
       </c>
       <c r="AH5" t="n">
-        <v>502844.2581412251</v>
+        <v>626773.0692154355</v>
       </c>
     </row>
     <row r="6">
@@ -8433,28 +8433,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>400.2072319215948</v>
+        <v>492.1508887682596</v>
       </c>
       <c r="AB6" t="n">
-        <v>547.5811906121087</v>
+        <v>673.3825581775783</v>
       </c>
       <c r="AC6" t="n">
-        <v>495.3208103151162</v>
+        <v>609.1158719234658</v>
       </c>
       <c r="AD6" t="n">
-        <v>400207.2319215948</v>
+        <v>492150.8887682596</v>
       </c>
       <c r="AE6" t="n">
-        <v>547581.1906121087</v>
+        <v>673382.5581775783</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.378476816608921e-06</v>
+        <v>2.026970867654268e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.02083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>495320.8103151162</v>
+        <v>609115.8719234657</v>
       </c>
     </row>
     <row r="7">
@@ -8539,28 +8539,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>401.3220537447223</v>
+        <v>493.2657105913871</v>
       </c>
       <c r="AB7" t="n">
-        <v>549.1065390129795</v>
+        <v>674.9079065784491</v>
       </c>
       <c r="AC7" t="n">
-        <v>496.7005816054477</v>
+        <v>610.4956432137974</v>
       </c>
       <c r="AD7" t="n">
-        <v>401322.0537447223</v>
+        <v>493265.7105913871</v>
       </c>
       <c r="AE7" t="n">
-        <v>549106.5390129795</v>
+        <v>674907.9065784491</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.377672414654082e-06</v>
+        <v>2.025788040849568e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.03385416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>496700.5816054477</v>
+        <v>610495.6432137974</v>
       </c>
     </row>
   </sheetData>
@@ -8836,28 +8836,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>778.3851987334895</v>
+        <v>932.6051794282509</v>
       </c>
       <c r="AB2" t="n">
-        <v>1065.020968838538</v>
+        <v>1276.031550130477</v>
       </c>
       <c r="AC2" t="n">
-        <v>963.3768623389052</v>
+        <v>1154.248889907553</v>
       </c>
       <c r="AD2" t="n">
-        <v>778385.1987334895</v>
+        <v>932605.179428251</v>
       </c>
       <c r="AE2" t="n">
-        <v>1065020.968838538</v>
+        <v>1276031.550130477</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.89362227488069e-07</v>
+        <v>1.286704819196475e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>963376.8623389052</v>
+        <v>1154248.889907553</v>
       </c>
     </row>
     <row r="3">
@@ -8942,28 +8942,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>567.070647629231</v>
+        <v>687.0479883452472</v>
       </c>
       <c r="AB3" t="n">
-        <v>775.8910774776491</v>
+        <v>940.0493680720118</v>
       </c>
       <c r="AC3" t="n">
-        <v>701.8411220131483</v>
+        <v>850.3323757507928</v>
       </c>
       <c r="AD3" t="n">
-        <v>567070.647629231</v>
+        <v>687047.9883452472</v>
       </c>
       <c r="AE3" t="n">
-        <v>775891.0774776491</v>
+        <v>940049.3680720119</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.126125510430197e-06</v>
+        <v>1.629247427544997e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.20052083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>701841.1220131483</v>
+        <v>850332.3757507928</v>
       </c>
     </row>
     <row r="4">
@@ -9048,28 +9048,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>508.0157514098665</v>
+        <v>619.4110969175536</v>
       </c>
       <c r="AB4" t="n">
-        <v>695.0895631521677</v>
+        <v>847.5055892915868</v>
       </c>
       <c r="AC4" t="n">
-        <v>628.7511908092531</v>
+        <v>766.6208453311623</v>
       </c>
       <c r="AD4" t="n">
-        <v>508015.7514098665</v>
+        <v>619411.0969175536</v>
       </c>
       <c r="AE4" t="n">
-        <v>695089.5631521677</v>
+        <v>847505.5892915868</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.216002857229256e-06</v>
+        <v>1.759279501865911e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.1953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>628751.1908092531</v>
+        <v>766620.8453311623</v>
       </c>
     </row>
     <row r="5">
@@ -9154,28 +9154,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>472.0072486046116</v>
+        <v>574.9059397585412</v>
       </c>
       <c r="AB5" t="n">
-        <v>645.8211410309907</v>
+        <v>786.611669837664</v>
       </c>
       <c r="AC5" t="n">
-        <v>584.1848777466565</v>
+        <v>711.5385560847693</v>
       </c>
       <c r="AD5" t="n">
-        <v>472007.2486046116</v>
+        <v>574905.9397585412</v>
       </c>
       <c r="AE5" t="n">
-        <v>645821.1410309908</v>
+        <v>786611.669837664</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.269882209106179e-06</v>
+        <v>1.837230666838396e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.12760416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>584184.8777466565</v>
+        <v>711538.5560847693</v>
       </c>
     </row>
     <row r="6">
@@ -9260,28 +9260,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>445.0697569625406</v>
+        <v>548.0536994624907</v>
       </c>
       <c r="AB6" t="n">
-        <v>608.9640765680509</v>
+        <v>749.8712500273734</v>
       </c>
       <c r="AC6" t="n">
-        <v>550.8453997868446</v>
+        <v>678.3045903756695</v>
       </c>
       <c r="AD6" t="n">
-        <v>445069.7569625406</v>
+        <v>548053.6994624907</v>
       </c>
       <c r="AE6" t="n">
-        <v>608964.0765680509</v>
+        <v>749871.2500273734</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.302468629346151e-06</v>
+        <v>1.884375803732235e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.515625</v>
       </c>
       <c r="AH6" t="n">
-        <v>550845.3997868446</v>
+        <v>678304.5903756695</v>
       </c>
     </row>
     <row r="7">
@@ -9366,28 +9366,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>433.5261943866537</v>
+        <v>536.3395446860117</v>
       </c>
       <c r="AB7" t="n">
-        <v>593.1696649856839</v>
+        <v>733.8434266701595</v>
       </c>
       <c r="AC7" t="n">
-        <v>536.558384678303</v>
+        <v>663.8064399844769</v>
       </c>
       <c r="AD7" t="n">
-        <v>433526.1943866537</v>
+        <v>536339.5446860116</v>
       </c>
       <c r="AE7" t="n">
-        <v>593169.6649856839</v>
+        <v>733843.4266701594</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.318961828326816e-06</v>
+        <v>1.908237710564424e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.22916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>536558.384678303</v>
+        <v>663806.4399844769</v>
       </c>
     </row>
     <row r="8">
@@ -9472,28 +9472,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>430.4181834345727</v>
+        <v>533.2315337339306</v>
       </c>
       <c r="AB8" t="n">
-        <v>588.9171472852805</v>
+        <v>729.590908969756</v>
       </c>
       <c r="AC8" t="n">
-        <v>532.71172129878</v>
+        <v>659.9597766049538</v>
       </c>
       <c r="AD8" t="n">
-        <v>430418.1834345727</v>
+        <v>533231.5337339307</v>
       </c>
       <c r="AE8" t="n">
-        <v>588917.1472852805</v>
+        <v>729590.908969756</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.321173469844909e-06</v>
+        <v>1.911437452707399e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.19010416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>532711.7212987801</v>
+        <v>659959.7766049538</v>
       </c>
     </row>
     <row r="9">
@@ -9578,28 +9578,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>431.5524579322821</v>
+        <v>534.3658082316401</v>
       </c>
       <c r="AB9" t="n">
-        <v>590.4691116937057</v>
+        <v>731.1428733781812</v>
       </c>
       <c r="AC9" t="n">
-        <v>534.1155684022609</v>
+        <v>661.3636237084347</v>
       </c>
       <c r="AD9" t="n">
-        <v>431552.4579322821</v>
+        <v>534365.8082316401</v>
       </c>
       <c r="AE9" t="n">
-        <v>590469.1116937057</v>
+        <v>731142.8733781812</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.321055829338627e-06</v>
+        <v>1.911267253657241e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.19010416666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>534115.5684022609</v>
+        <v>661363.6237084348</v>
       </c>
     </row>
   </sheetData>
@@ -9875,28 +9875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>492.0761869589812</v>
+        <v>605.4175162237663</v>
       </c>
       <c r="AB2" t="n">
-        <v>673.2803478665124</v>
+        <v>828.3589548331373</v>
       </c>
       <c r="AC2" t="n">
-        <v>609.0234164210349</v>
+        <v>749.301538792957</v>
       </c>
       <c r="AD2" t="n">
-        <v>492076.1869589812</v>
+        <v>605417.5162237663</v>
       </c>
       <c r="AE2" t="n">
-        <v>673280.3478665125</v>
+        <v>828358.9548331373</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.196328907098657e-06</v>
+        <v>1.796508713115136e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.70833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>609023.4164210348</v>
+        <v>749301.538792957</v>
       </c>
     </row>
     <row r="3">
@@ -9981,28 +9981,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>391.6175329673306</v>
+        <v>496.6923712897736</v>
       </c>
       <c r="AB3" t="n">
-        <v>535.8283855521116</v>
+        <v>679.5964149195823</v>
       </c>
       <c r="AC3" t="n">
-        <v>484.6896764748798</v>
+        <v>614.7366868992154</v>
       </c>
       <c r="AD3" t="n">
-        <v>391617.5329673307</v>
+        <v>496692.3712897736</v>
       </c>
       <c r="AE3" t="n">
-        <v>535828.3855521117</v>
+        <v>679596.4149195823</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.384712529256895e-06</v>
+        <v>2.079401500046308e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.93229166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>484689.6764748798</v>
+        <v>614736.6868992154</v>
       </c>
     </row>
     <row r="4">
@@ -10087,28 +10087,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>370.1851214342046</v>
+        <v>459.239112507944</v>
       </c>
       <c r="AB4" t="n">
-        <v>506.503614561224</v>
+        <v>628.3512139331204</v>
       </c>
       <c r="AC4" t="n">
-        <v>458.1636204697879</v>
+        <v>568.3822559718103</v>
       </c>
       <c r="AD4" t="n">
-        <v>370185.1214342046</v>
+        <v>459239.1125079439</v>
       </c>
       <c r="AE4" t="n">
-        <v>506503.614561224</v>
+        <v>628351.2139331205</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.436281941294807e-06</v>
+        <v>2.156842492658462e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.07291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>458163.6204697879</v>
+        <v>568382.2559718103</v>
       </c>
     </row>
     <row r="5">
@@ -10193,28 +10193,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>370.2062468601826</v>
+        <v>459.260237933922</v>
       </c>
       <c r="AB5" t="n">
-        <v>506.5325193010351</v>
+        <v>628.3801186729315</v>
       </c>
       <c r="AC5" t="n">
-        <v>458.1897665817994</v>
+        <v>568.4084020838218</v>
       </c>
       <c r="AD5" t="n">
-        <v>370206.2468601826</v>
+        <v>459260.237933922</v>
       </c>
       <c r="AE5" t="n">
-        <v>506532.5193010351</v>
+        <v>628380.1186729316</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.438114615365256e-06</v>
+        <v>2.159594591112597e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.046875</v>
       </c>
       <c r="AH5" t="n">
-        <v>458189.7665817994</v>
+        <v>568408.4020838218</v>
       </c>
     </row>
   </sheetData>
@@ -10490,28 +10490,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>401.3458777627524</v>
+        <v>503.502373659798</v>
       </c>
       <c r="AB2" t="n">
-        <v>549.1391360854896</v>
+        <v>688.9141605983507</v>
       </c>
       <c r="AC2" t="n">
-        <v>496.7300676591079</v>
+        <v>623.1651600079404</v>
       </c>
       <c r="AD2" t="n">
-        <v>401345.8777627524</v>
+        <v>503502.373659798</v>
       </c>
       <c r="AE2" t="n">
-        <v>549139.1360854895</v>
+        <v>688914.1605983507</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.352262382961491e-06</v>
+        <v>2.074028033502244e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.53385416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>496730.0676591079</v>
+        <v>623165.1600079404</v>
       </c>
     </row>
     <row r="3">
@@ -10596,28 +10596,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>345.4332153719184</v>
+        <v>439.5609270762914</v>
       </c>
       <c r="AB3" t="n">
-        <v>472.6369647097765</v>
+        <v>601.4266524852626</v>
       </c>
       <c r="AC3" t="n">
-        <v>427.5291561480209</v>
+        <v>544.0273368796767</v>
       </c>
       <c r="AD3" t="n">
-        <v>345433.2153719184</v>
+        <v>439560.9270762914</v>
       </c>
       <c r="AE3" t="n">
-        <v>472636.9647097765</v>
+        <v>601426.6524852626</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.482713372631704e-06</v>
+        <v>2.274106814797337e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.28125</v>
       </c>
       <c r="AH3" t="n">
-        <v>427529.1561480209</v>
+        <v>544027.3368796767</v>
       </c>
     </row>
     <row r="4">
@@ -10702,28 +10702,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>345.641492181647</v>
+        <v>439.7692038860201</v>
       </c>
       <c r="AB4" t="n">
-        <v>472.9219382293714</v>
+        <v>601.7116260048576</v>
       </c>
       <c r="AC4" t="n">
-        <v>427.7869321948685</v>
+        <v>544.2851129265243</v>
       </c>
       <c r="AD4" t="n">
-        <v>345641.492181647</v>
+        <v>439769.2038860201</v>
       </c>
       <c r="AE4" t="n">
-        <v>472921.9382293714</v>
+        <v>601711.6260048576</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.485232243367207e-06</v>
+        <v>2.277970124598767e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.2421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>427786.9321948686</v>
+        <v>544285.1129265244</v>
       </c>
     </row>
   </sheetData>
@@ -18908,28 +18908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>342.9047090239799</v>
+        <v>434.8385787590563</v>
       </c>
       <c r="AB2" t="n">
-        <v>469.1773507746997</v>
+        <v>594.9653271823173</v>
       </c>
       <c r="AC2" t="n">
-        <v>424.3997229113092</v>
+        <v>538.1826713951174</v>
       </c>
       <c r="AD2" t="n">
-        <v>342904.70902398</v>
+        <v>434838.5787590563</v>
       </c>
       <c r="AE2" t="n">
-        <v>469177.3507746997</v>
+        <v>594965.3271823173</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.478695955197905e-06</v>
+        <v>2.310433262178472e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.15364583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>424399.7229113092</v>
+        <v>538182.6713951174</v>
       </c>
     </row>
     <row r="3">
@@ -19014,28 +19014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>326.8676646472667</v>
+        <v>418.8867857283636</v>
       </c>
       <c r="AB3" t="n">
-        <v>447.234759154016</v>
+        <v>573.1393802142828</v>
       </c>
       <c r="AC3" t="n">
-        <v>404.5513014382827</v>
+        <v>518.4397621728032</v>
       </c>
       <c r="AD3" t="n">
-        <v>326867.6646472667</v>
+        <v>418886.7857283636</v>
       </c>
       <c r="AE3" t="n">
-        <v>447234.759154016</v>
+        <v>573139.3802142828</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.512020921542419e-06</v>
+        <v>2.362502864744631e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.61979166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>404551.3014382827</v>
+        <v>518439.7621728032</v>
       </c>
     </row>
   </sheetData>
@@ -19311,28 +19311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>307.5620276984496</v>
+        <v>402.1842655669985</v>
       </c>
       <c r="AB2" t="n">
-        <v>420.8199349760525</v>
+        <v>550.2862552663187</v>
       </c>
       <c r="AC2" t="n">
-        <v>380.6574710064256</v>
+        <v>497.7677073953104</v>
       </c>
       <c r="AD2" t="n">
-        <v>307562.0276984496</v>
+        <v>402184.2655669985</v>
       </c>
       <c r="AE2" t="n">
-        <v>420819.9349760525</v>
+        <v>550286.2552663187</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.509756732174058e-06</v>
+        <v>2.460414513204505e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>380657.4710064256</v>
+        <v>497767.7073953104</v>
       </c>
     </row>
   </sheetData>
@@ -19608,28 +19608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>595.4776731186723</v>
+        <v>719.8503563609696</v>
       </c>
       <c r="AB2" t="n">
-        <v>814.7588229818191</v>
+        <v>984.9310151294663</v>
       </c>
       <c r="AC2" t="n">
-        <v>736.9993844376235</v>
+        <v>890.9305814048711</v>
       </c>
       <c r="AD2" t="n">
-        <v>595477.6731186723</v>
+        <v>719850.3563609696</v>
       </c>
       <c r="AE2" t="n">
-        <v>814758.822981819</v>
+        <v>984931.0151294663</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.066748097977817e-06</v>
+        <v>1.575993163475731e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.05208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>736999.3844376234</v>
+        <v>890930.5814048711</v>
       </c>
     </row>
     <row r="3">
@@ -19714,28 +19714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>461.6280219552111</v>
+        <v>569.3209730644945</v>
       </c>
       <c r="AB3" t="n">
-        <v>631.6198252301181</v>
+        <v>778.9700720155283</v>
       </c>
       <c r="AC3" t="n">
-        <v>571.3389155941472</v>
+        <v>704.6262616337279</v>
       </c>
       <c r="AD3" t="n">
-        <v>461628.0219552111</v>
+        <v>569320.9730644946</v>
       </c>
       <c r="AE3" t="n">
-        <v>631619.8252301181</v>
+        <v>778970.0720155283</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.27510002858447e-06</v>
+        <v>1.883808306390458e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.14322916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>571338.9155941473</v>
+        <v>704626.2616337279</v>
       </c>
     </row>
     <row r="4">
@@ -19820,28 +19820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>411.2289296354987</v>
+        <v>510.795277306153</v>
       </c>
       <c r="AB4" t="n">
-        <v>562.6615636672578</v>
+        <v>698.892633107495</v>
       </c>
       <c r="AC4" t="n">
-        <v>508.9619337313183</v>
+        <v>632.1913011056861</v>
       </c>
       <c r="AD4" t="n">
-        <v>411228.9296354987</v>
+        <v>510795.277306153</v>
       </c>
       <c r="AE4" t="n">
-        <v>562661.5636672578</v>
+        <v>698892.633107495</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.355826246292046e-06</v>
+        <v>2.003071670873194e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.64583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>508961.9337313183</v>
+        <v>632191.3011056861</v>
       </c>
     </row>
     <row r="5">
@@ -19926,28 +19926,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>394.9186177233043</v>
+        <v>494.3143731933665</v>
       </c>
       <c r="AB5" t="n">
-        <v>540.3450753488158</v>
+        <v>676.3427330142061</v>
       </c>
       <c r="AC5" t="n">
-        <v>488.7752997366005</v>
+        <v>611.7935318283173</v>
       </c>
       <c r="AD5" t="n">
-        <v>394918.6177233043</v>
+        <v>494314.3731933665</v>
       </c>
       <c r="AE5" t="n">
-        <v>540345.0753488159</v>
+        <v>676342.7330142062</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.386920242316648e-06</v>
+        <v>2.049009343743488e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.11197916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>488775.2997366005</v>
+        <v>611793.5318283173</v>
       </c>
     </row>
     <row r="6">
@@ -20032,28 +20032,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>394.1830887953022</v>
+        <v>485.4523303352864</v>
       </c>
       <c r="AB6" t="n">
-        <v>539.3386922202772</v>
+        <v>664.2172950100431</v>
       </c>
       <c r="AC6" t="n">
-        <v>487.8649644013819</v>
+        <v>600.8253286091124</v>
       </c>
       <c r="AD6" t="n">
-        <v>394183.0887953022</v>
+        <v>485452.3303352864</v>
       </c>
       <c r="AE6" t="n">
-        <v>539338.6922202772</v>
+        <v>664217.2950100431</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.389308300601989e-06</v>
+        <v>2.05253741521492e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.07291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>487864.964401382</v>
+        <v>600825.3286091124</v>
       </c>
     </row>
   </sheetData>
@@ -20329,28 +20329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>737.5250298768118</v>
+        <v>882.5177381688247</v>
       </c>
       <c r="AB2" t="n">
-        <v>1009.114283185405</v>
+        <v>1207.499703297375</v>
       </c>
       <c r="AC2" t="n">
-        <v>912.8058322989807</v>
+        <v>1092.257626351151</v>
       </c>
       <c r="AD2" t="n">
-        <v>737525.0298768118</v>
+        <v>882517.7381688247</v>
       </c>
       <c r="AE2" t="n">
-        <v>1009114.283185405</v>
+        <v>1207499.703297375</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.218595629259913e-07</v>
+        <v>1.338695894042246e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>912805.8322989807</v>
+        <v>1092257.626351151</v>
       </c>
     </row>
     <row r="3">
@@ -20435,28 +20435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>540.7799394583938</v>
+        <v>660.100358373715</v>
       </c>
       <c r="AB3" t="n">
-        <v>739.9189706941243</v>
+        <v>903.1784318994319</v>
       </c>
       <c r="AC3" t="n">
-        <v>669.3021426138739</v>
+        <v>816.9803499778399</v>
       </c>
       <c r="AD3" t="n">
-        <v>540779.9394583937</v>
+        <v>660100.3583737151</v>
       </c>
       <c r="AE3" t="n">
-        <v>739918.9706941242</v>
+        <v>903178.4318994319</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.153854638994066e-06</v>
+        <v>1.675591955286755e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.77083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>669302.1426138739</v>
+        <v>816980.3499778399</v>
       </c>
     </row>
     <row r="4">
@@ -20541,28 +20541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>483.0028205986999</v>
+        <v>593.7942566733146</v>
       </c>
       <c r="AB4" t="n">
-        <v>660.8657677237028</v>
+        <v>812.4554983341885</v>
       </c>
       <c r="AC4" t="n">
-        <v>597.7936663830823</v>
+        <v>734.9158858616265</v>
       </c>
       <c r="AD4" t="n">
-        <v>483002.8205987</v>
+        <v>593794.2566733146</v>
       </c>
       <c r="AE4" t="n">
-        <v>660865.7677237028</v>
+        <v>812455.4983341885</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.243269655018259e-06</v>
+        <v>1.805437671089041e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.84375</v>
       </c>
       <c r="AH4" t="n">
-        <v>597793.6663830823</v>
+        <v>734915.8858616265</v>
       </c>
     </row>
     <row r="5">
@@ -20647,28 +20647,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>450.5230169774007</v>
+        <v>561.229112197444</v>
       </c>
       <c r="AB5" t="n">
-        <v>616.4254675012352</v>
+        <v>767.8984309895231</v>
       </c>
       <c r="AC5" t="n">
-        <v>557.5946860414939</v>
+        <v>694.6112824880991</v>
       </c>
       <c r="AD5" t="n">
-        <v>450523.0169774008</v>
+        <v>561229.112197444</v>
       </c>
       <c r="AE5" t="n">
-        <v>616425.4675012352</v>
+        <v>767898.4309895232</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.291096843212679e-06</v>
+        <v>1.874890831889627e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.93229166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>557594.6860414939</v>
+        <v>694611.2824880991</v>
       </c>
     </row>
     <row r="6">
@@ -20753,28 +20753,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>431.6879181042596</v>
+        <v>533.8651199921472</v>
       </c>
       <c r="AB6" t="n">
-        <v>590.6544542770863</v>
+        <v>730.4578096401009</v>
       </c>
       <c r="AC6" t="n">
-        <v>534.2832221496135</v>
+        <v>660.7439414920236</v>
       </c>
       <c r="AD6" t="n">
-        <v>431687.9181042596</v>
+        <v>533865.1199921472</v>
       </c>
       <c r="AE6" t="n">
-        <v>590654.4542770863</v>
+        <v>730457.8096401009</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.323527282826654e-06</v>
+        <v>1.921985311460262e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>534283.2221496135</v>
+        <v>660743.9414920236</v>
       </c>
     </row>
     <row r="7">
@@ -20859,28 +20859,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>423.2188229328108</v>
+        <v>525.3960248206984</v>
       </c>
       <c r="AB7" t="n">
-        <v>579.0666646334005</v>
+        <v>718.8700199964152</v>
       </c>
       <c r="AC7" t="n">
-        <v>523.8013548859562</v>
+        <v>650.2620742283664</v>
       </c>
       <c r="AD7" t="n">
-        <v>423218.8229328108</v>
+        <v>525396.0248206983</v>
       </c>
       <c r="AE7" t="n">
-        <v>579066.6646334005</v>
+        <v>718870.0199964151</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.334345337299202e-06</v>
+        <v>1.93769495497468e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.15104166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>523801.3548859562</v>
+        <v>650262.0742283664</v>
       </c>
     </row>
     <row r="8">
@@ -20965,28 +20965,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>424.1516595241993</v>
+        <v>526.3288614120869</v>
       </c>
       <c r="AB8" t="n">
-        <v>580.3430128115843</v>
+        <v>720.146368174599</v>
       </c>
       <c r="AC8" t="n">
-        <v>524.9558901853801</v>
+        <v>651.4166095277902</v>
       </c>
       <c r="AD8" t="n">
-        <v>424151.6595241993</v>
+        <v>526328.8614120869</v>
       </c>
       <c r="AE8" t="n">
-        <v>580343.0128115844</v>
+        <v>720146.368174599</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.334440232513873e-06</v>
+        <v>1.937832758865158e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.15104166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>524955.8901853801</v>
+        <v>651416.6095277902</v>
       </c>
     </row>
   </sheetData>
@@ -21262,28 +21262,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>307.0643648131113</v>
+        <v>406.6836603967669</v>
       </c>
       <c r="AB2" t="n">
-        <v>420.1390106609957</v>
+        <v>556.4425257716982</v>
       </c>
       <c r="AC2" t="n">
-        <v>380.0415331523145</v>
+        <v>503.3364320840365</v>
       </c>
       <c r="AD2" t="n">
-        <v>307064.3648131113</v>
+        <v>406683.6603967668</v>
       </c>
       <c r="AE2" t="n">
-        <v>420139.0106609957</v>
+        <v>556442.5257716982</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.438281835837567e-06</v>
+        <v>2.397530128887608e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.59114583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>380041.5331523145</v>
+        <v>503336.4320840365</v>
       </c>
     </row>
   </sheetData>
@@ -21559,28 +21559,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>433.7383796475577</v>
+        <v>536.9061609871435</v>
       </c>
       <c r="AB2" t="n">
-        <v>593.4599862206056</v>
+        <v>734.6186960907148</v>
       </c>
       <c r="AC2" t="n">
-        <v>536.8209980620322</v>
+        <v>664.5077187796319</v>
       </c>
       <c r="AD2" t="n">
-        <v>433738.3796475577</v>
+        <v>536906.1609871435</v>
       </c>
       <c r="AE2" t="n">
-        <v>593459.9862206057</v>
+        <v>734618.6960907148</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.298272161991709e-06</v>
+        <v>1.975849000132315e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.2109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>536820.9980620323</v>
+        <v>664507.7187796319</v>
       </c>
     </row>
     <row r="3">
@@ -21665,28 +21665,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>356.4155300050556</v>
+        <v>451.555429514254</v>
       </c>
       <c r="AB3" t="n">
-        <v>487.6634520963617</v>
+        <v>617.8380598809842</v>
       </c>
       <c r="AC3" t="n">
-        <v>441.1215366682379</v>
+        <v>558.8724625871055</v>
       </c>
       <c r="AD3" t="n">
-        <v>356415.5300050556</v>
+        <v>451555.429514254</v>
       </c>
       <c r="AE3" t="n">
-        <v>487663.4520963617</v>
+        <v>617838.0598809842</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.46110160338784e-06</v>
+        <v>2.223660205204355e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.28125</v>
       </c>
       <c r="AH3" t="n">
-        <v>441121.5366682379</v>
+        <v>558872.4625871055</v>
       </c>
     </row>
     <row r="4">
@@ -21771,28 +21771,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>354.6051850520336</v>
+        <v>449.745084561232</v>
       </c>
       <c r="AB4" t="n">
-        <v>485.1864582648544</v>
+        <v>615.3610660494769</v>
       </c>
       <c r="AC4" t="n">
-        <v>438.880943651527</v>
+        <v>556.6318695703945</v>
       </c>
       <c r="AD4" t="n">
-        <v>354605.1850520336</v>
+        <v>449745.084561232</v>
       </c>
       <c r="AE4" t="n">
-        <v>485186.4582648544</v>
+        <v>615361.0660494769</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.466065915625527e-06</v>
+        <v>2.231215424871185e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.203125</v>
       </c>
       <c r="AH4" t="n">
-        <v>438880.943651527</v>
+        <v>556631.8695703945</v>
       </c>
     </row>
   </sheetData>
@@ -22068,28 +22068,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>526.1371968917114</v>
+        <v>648.3745811320152</v>
       </c>
       <c r="AB2" t="n">
-        <v>719.8841243221792</v>
+        <v>887.1347061725556</v>
       </c>
       <c r="AC2" t="n">
-        <v>651.1793938605839</v>
+        <v>802.4678149168263</v>
       </c>
       <c r="AD2" t="n">
-        <v>526137.1968917113</v>
+        <v>648374.5811320152</v>
       </c>
       <c r="AE2" t="n">
-        <v>719884.1243221792</v>
+        <v>887134.7061725557</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.149662340675265e-06</v>
+        <v>1.716343202907722e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.48958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>651179.3938605839</v>
+        <v>802467.8149168263</v>
       </c>
     </row>
     <row r="3">
@@ -22174,28 +22174,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>417.0698274332861</v>
+        <v>514.9792299236398</v>
       </c>
       <c r="AB3" t="n">
-        <v>570.6533377164151</v>
+        <v>704.6173016617028</v>
       </c>
       <c r="AC3" t="n">
-        <v>516.1909840817494</v>
+        <v>637.3696153277031</v>
       </c>
       <c r="AD3" t="n">
-        <v>417069.8274332861</v>
+        <v>514979.2299236398</v>
       </c>
       <c r="AE3" t="n">
-        <v>570653.3377164151</v>
+        <v>704617.3016617028</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.346102610648857e-06</v>
+        <v>2.00961098268774e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.3359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>516190.9840817495</v>
+        <v>637369.6153277031</v>
       </c>
     </row>
     <row r="4">
@@ -22280,28 +22280,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>381.0315292438084</v>
+        <v>478.8555908795905</v>
       </c>
       <c r="AB4" t="n">
-        <v>521.3441482360651</v>
+        <v>655.191345059155</v>
       </c>
       <c r="AC4" t="n">
-        <v>471.5877944395219</v>
+        <v>592.6608026535366</v>
       </c>
       <c r="AD4" t="n">
-        <v>381031.5292438085</v>
+        <v>478855.5908795905</v>
       </c>
       <c r="AE4" t="n">
-        <v>521344.1482360651</v>
+        <v>655191.345059155</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.414274352437619e-06</v>
+        <v>2.111385305034244e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.1640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>471587.7944395219</v>
+        <v>592660.8026535367</v>
       </c>
     </row>
     <row r="5">
@@ -22386,28 +22386,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>378.1588114199147</v>
+        <v>467.9873336118088</v>
       </c>
       <c r="AB5" t="n">
-        <v>517.4135689740477</v>
+        <v>640.320915991705</v>
       </c>
       <c r="AC5" t="n">
-        <v>468.0323441456689</v>
+        <v>579.2095864655059</v>
       </c>
       <c r="AD5" t="n">
-        <v>378158.8114199147</v>
+        <v>467987.3336118088</v>
       </c>
       <c r="AE5" t="n">
-        <v>517413.5689740478</v>
+        <v>640320.9159917049</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.420739347876627e-06</v>
+        <v>2.121036965861938e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.05989583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>468032.3441456689</v>
+        <v>579209.5864655059</v>
       </c>
     </row>
   </sheetData>
